--- a/input files/instagram.xlsx
+++ b/input files/instagram.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CPYRUS IG BOT\input files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IG BOT PC 2\input files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16127A33-0A58-4C4D-8E3A-D98548F97DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAAF272-D4C7-43F4-BA5F-E6A6DCC8E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>url</t>
   </si>
@@ -31,247 +31,871 @@
     <t>Image Url</t>
   </si>
   <si>
-    <t>https://www.instagram.com/ainjelfyre</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/thef0rgiven</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/primealphawolfe</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/fabreezio94</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/b00nd0xkhg</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/tooniceforher</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jm_feliciano_</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/defran_st</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/xykoticcustoms</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/maurice_wahl92</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/ma_hew08</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/makromatee</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/p4tr1ck_m</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kptnordmann</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/santosdionicios</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/leonsiegus</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/richie_21._</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/voidlord</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/khryn_tzu</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/poke_surge</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/bayrots.plays</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/holyjoec</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/thehumanvirus613</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/ummsumm_gaming_books</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/screwit110286</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kennethwmyersauthor</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/drwhotardis22</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/ricansoldier426</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/queffear</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/black_paladin84</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kingastraxtv</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/avengedhd_</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/reuelopes</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kidddagawdgaming</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/itsswanson</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/crackmatrix</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/darthsterling77</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/tagsz12</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/lykangames</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/gig_nft</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/duckthevandal</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/itsgobsgarage</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/salsitas1</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/mrmotivation13</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/itzmonsta420</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/killrchad</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/g24_industries</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/forfrogsnacks</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/dre3dd</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/abdulmuiz_07</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/cpl_whitlow</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/insanitywelcome</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/berttlesclips</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/lordofthetoilet7</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/puntoboy</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/luceishere_</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/patrik.stepanek.dg</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/newpathdancer</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/rufokl0tz</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/daisyarts02</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/kingnem0g</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/mike_athanas1ad1s2</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/rebornjcush</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/xddx_hitower</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/grizzlybeargonewild</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/b_fry12</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jaxmoren</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/cush.gaming</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/ig_evilempiregaming</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/vonnievonvon13</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/limito_breaku</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/starry.mouchi</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/sladge82</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/benni_wood</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/marqvantix</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/pu3rto_r3con</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/stealthyrebellion</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/littlejasmay</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/americanheathen87</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/tiktok_ms_daddi</t>
-  </si>
-  <si>
-    <t>https://www.instagram.com/jasonluger18</t>
+    <t>https://www.instagram.com/alahr68/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/schoes84/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/brandon.dorris/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/zaddy_sup/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/toxicjrey/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rorshaxmusic/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nightmareone/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sojuexp/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jeramiesandra/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/paul.neil.85/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mikehooper73/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/operationvetnow/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wiredawg4ever/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jpjuice/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/targett38/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/johnnye4610/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kathy.senne/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/slicktinez/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/atlasdad94/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/havoc_57/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jbras13banger/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nod0z_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sirjacelot/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jacqueb4u/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pettyinpinkgirl/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/grandinc8/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/joehansen975/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wayneofearth000/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/torinraven/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sir.abraham.delacy/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/whiskey_nd_wine/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/koalalewski/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/billmakinen/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/christyslayton81/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/goramnginger/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sirwarwolf/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nicki.pugh/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/juggalolefty/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/g_dot_wiz/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/antwon_4/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/washenkoisboss/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wyattsuthard/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/l_madara50/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/disappearrrrrrrrrrr/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/afultz10/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/adventurer_ish/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/joshua.osborne.46/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cpldic/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/larry.walls.374/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sunshinenrainbows89/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/shaunsan82/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bigtmeyka67/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bill_mcgaughy/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/s3afry/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wheretheplugat/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/momma.megz/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/after_yesterday90/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bigmc74/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/davesuth1/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/btking5/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kingcheens/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/arturovenegasjr/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gifford_allen/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sethlindsay1988/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dr.cetra/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/john5437taylor/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/will_usaf26/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jennifer.j.tracey/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/donnykelly21/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/keith.soules.jr/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/florencedestinedfxt/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bt110119112/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kcball_90/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/howardmw1960/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jgas_82/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mrkanemorgan/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kryptonian171/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lucifer_morningstar166/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/darenwh2019/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thesnohmannnnn/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hongtuan1232000/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/zarahti/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/robbie.revels/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jim.buckalew/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/katiejo79/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/matthewdalessandro58/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/brantonheard04/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/devildemon77/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sherriet1994/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/renkmcgee/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/joe_ganoe/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/megaatruong/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/olddogsnewtricks2024/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mike_g1986/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bierjager/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hydro.gine/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/eazwav/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/taradunigonwoods/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/where.is.marion/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ehris_erisu/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/calvar7897/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/juice_leroy74/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/king_leanie87/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chase493/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jtolley94/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dagiagain/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jenmsexton55/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rosam5126/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ooyeathatguy/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sgp_beats/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mrduck363/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ezmijowski/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mardenhueter/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/arlowskay/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/stephaniemfotos/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ssj4goten/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/roguedesciple8/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/nick60625/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/wh1stl3r_650/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/victoriouspower927/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mccordrich/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/michaelmihalyi/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sightlywaif/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/frankcjimenez/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/teufelhunden17/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/xolarajane/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/zamead92/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/alexwoodsmall/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thesilent_nomad/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thomas.snell/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/halgarre/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/len_grenade/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sbk_veda/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bone_guru/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rr_unlv/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dawnbytch69/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dixoncider2133/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thejohnron/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/justinmanuelmedina/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/boricva09/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/montanaclaytonwriting/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/donnyphinney/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tmochosen/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jennyinx/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rickyricardo_26/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bch371/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/remember_when74/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/motivate04/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cordovabuddy/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/caspernathe/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/12_19usn_vet/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bubula91b/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/the.vintage.veteran82/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hashtagpoundsignwillbanks/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/griseldaalvarado76/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/markyebra/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/miss_kian/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/n_nr_g/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/zekio.969/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/echubeleke/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sac_c1ty_jay/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/n3gro_81/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jmattq/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/timmebrennan7/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marinemustang95/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ideaunsound/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/backcountry449/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pearl.demon/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/timhampton62/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fallout_91/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sticks4hire1/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/k.3.n.r/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/binhqdoan/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thejimsides/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jamesmcarmack/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thomas.tyler1/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sancho_sim_.818/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/suzukigsx8/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/plentymotiondunc/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cdeb569/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/406marine/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/roco_candy/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/rivera7847/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jiu_jitsu_bear/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/shawn.marker6/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/djrod1980/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mseneshale/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tony_pr87/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sty13bender/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aclover13/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cubelifts/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sawyertk90/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/keithgopsill/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/alexanderboothby/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/barry_thebutcher/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gwavvy_508/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mccloskeyvj/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tjcarter49/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jyoungsocal909/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ceaze88/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thekejal4747/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jreed1328/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/m1776nosteponsnek/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/johnwiesniewski/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_mikeguzman_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ericdowers/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/maf16yere/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/randyvavra/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/comic_card_collector/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/monkey.anthony.98/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/johnrosado97/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lbwilliams90876/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sbenny_02/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/katkraft7/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jeepnwill/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mendez2231991/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/bruh_man_kris/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/eddie_lebron/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kool2k_r34/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mayleefox/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/t_miranda84/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mackdaddy.16503/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jt40_fl/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/officialtommycabral/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/chadparadis11/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tomrb2/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/timkelemen/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/appaisprinting/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/just_juan_cali/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/no__ike/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tonymo8711/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fox_kana_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/williekramer289/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fvck_im_on1/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/drizzy_slim/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sailnmike1/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/_antfromthedead/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dipeshkd/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/aaron.sabin/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dennisgipson9/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/ingeliezerrioslebron/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/travelingwithlos/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/knabercoaching/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/victor_orozcocarranza/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kbeeom1/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/combat.cam89/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lehmuth_fitness/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/keunsar/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/supermex34/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/warrenray42/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/your_matriarchs/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/knight_cop/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/miguel.cantero_r.e.broker/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hope4veterans2016/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/tr3y_b/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/screaming_eagle_3_187/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cps051254/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/orc9429/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/joshua.scott4/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/epichomesolar/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jeff____j____/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/valirossi46/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/devan.stewart.94/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/williamirwin53/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/causticmuse/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/marshjonathan/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/gsantosfrst/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/yocortez_/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jt_jrsy_photography/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/burdickbrett/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/mr.sandor/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kulon_72/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/infinite7.3/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/fitbodyalchemist/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/josiah.garza/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/lolol_x69/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/t_child_one/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/sscarpaci/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/cmassimini1948/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/that_guy_you_know0000/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/jordanbridger5ft8/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dres27373/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dchrisq/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/dukesmedialab/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/exodusthefox/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/davidsara79/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/raggitty69/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/kelementerprise/</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/hockersmithtravis/</t>
   </si>
 </sst>
 </file>
@@ -648,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A91" sqref="A2:A91"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1076,6 +1700,1046 @@
         <v>83</v>
       </c>
     </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
